--- a/biology/Zoologie/Enyalioides_cofanorum/Enyalioides_cofanorum.xlsx
+++ b/biology/Zoologie/Enyalioides_cofanorum/Enyalioides_cofanorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enyalioides cofanorum est une espèce de sauriens de la famille des Hoplocercidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enyalioides cofanorum est une espèce de sauriens de la famille des Hoplocercidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Équateur et en Colombie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Équateur et en Colombie. 
 Sa présence au Pérou est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 101 mm sans la queue plus 118 mm de queue et la femelle de 107 mm sans la queue plus 120 mm de queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 101 mm sans la queue plus 118 mm de queue et la femelle de 107 mm sans la queue plus 120 mm de queue.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence aux amérindiens A'i Cofán.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duellman, 1973 : Descriptions of new lizards from the upper Amazon Basin. Herpetologica, vol. 29, p. 228-231</t>
         </is>
